--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Rbp4-Stra6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Stra6</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,19 +525,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.616533914299193</v>
+        <v>0.7013473333333332</v>
       </c>
       <c r="H2">
-        <v>0.616533914299193</v>
+        <v>2.104042</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,31 +549,31 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.596038756821254</v>
+        <v>0.026907</v>
       </c>
       <c r="N2">
-        <v>0.596038756821254</v>
+        <v>0.080721</v>
       </c>
       <c r="O2">
-        <v>0.7074803005339477</v>
+        <v>0.02822345482694817</v>
       </c>
       <c r="P2">
-        <v>0.7074803005339477</v>
+        <v>0.02822345482694817</v>
       </c>
       <c r="Q2">
-        <v>0.3674781078170326</v>
+        <v>0.018871152698</v>
       </c>
       <c r="R2">
-        <v>0.3674781078170326</v>
+        <v>0.169840374282</v>
       </c>
       <c r="S2">
-        <v>0.7074803005339477</v>
+        <v>0.02822345482694817</v>
       </c>
       <c r="T2">
-        <v>0.7074803005339477</v>
+        <v>0.02822345482694817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,19 +587,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.616533914299193</v>
+        <v>0.7013473333333332</v>
       </c>
       <c r="H3">
-        <v>0.616533914299193</v>
+        <v>2.104042</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -605,34 +608,96 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.246442307840777</v>
+        <v>0.6065346666666667</v>
       </c>
       <c r="N3">
-        <v>0.246442307840777</v>
+        <v>1.819604</v>
       </c>
       <c r="O3">
-        <v>0.2925196994660522</v>
+        <v>0.6362100481527012</v>
       </c>
       <c r="P3">
-        <v>0.2925196994660522</v>
+        <v>0.6362100481527012</v>
       </c>
       <c r="Q3">
-        <v>0.151940040702001</v>
+        <v>0.4253914710408888</v>
       </c>
       <c r="R3">
-        <v>0.151940040702001</v>
+        <v>3.828523239367999</v>
       </c>
       <c r="S3">
-        <v>0.2925196994660522</v>
+        <v>0.6362100481527012</v>
       </c>
       <c r="T3">
-        <v>0.2925196994660522</v>
+        <v>0.6362100481527012</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.7013473333333332</v>
+      </c>
+      <c r="H4">
+        <v>2.104042</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.3199143333333334</v>
+      </c>
+      <c r="N4">
+        <v>0.959743</v>
+      </c>
+      <c r="O4">
+        <v>0.3355664970203506</v>
+      </c>
+      <c r="P4">
+        <v>0.3355664970203506</v>
+      </c>
+      <c r="Q4">
+        <v>0.2243710645784444</v>
+      </c>
+      <c r="R4">
+        <v>2.019339581206</v>
+      </c>
+      <c r="S4">
+        <v>0.3355664970203506</v>
+      </c>
+      <c r="T4">
+        <v>0.3355664970203506</v>
       </c>
     </row>
   </sheetData>
